--- a/sample/stations.xlsx
+++ b/sample/stations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\608509165\git\workgroup-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\608509165\git\workgroup-finder\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>stationId</t>
   </si>
@@ -54,6 +54,62 @@
   </si>
   <si>
     <t>BG-1</t>
+  </si>
+  <si>
+    <t>Babylon 5</t>
+  </si>
+  <si>
+    <t>Epsilon III</t>
+  </si>
+  <si>
+    <t>BB-5</t>
+  </si>
+  <si>
+    <t>Death Star</t>
+  </si>
+  <si>
+    <t>Galactic Empire</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SW-1</t>
+  </si>
+  <si>
+    <t>Deep Space Nine</t>
+  </si>
+  <si>
+    <t>Gamma Quadrant</t>
+  </si>
+  <si>
+    <t>Bajoran wormhole</t>
+  </si>
+  <si>
+    <t>Starfleet</t>
+  </si>
+  <si>
+    <t>ST-9</t>
+  </si>
+  <si>
+    <r>
+      <t>Elysium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>ES-1</t>
   </si>
 </sst>
 </file>
@@ -95,9 +151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,6 +168,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="stationId"/>
+    <tableColumn id="2" name="stationName"/>
+    <tableColumn id="3" name="workgroup"/>
+    <tableColumn id="4" name="region"/>
+    <tableColumn id="5" name="state"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -413,7 +482,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -426,8 +495,82 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" tooltip="Starfleet" display="http://en.wikipedia.org/wiki/Starfleet"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>